--- a/data/trans_bre/P12_1_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.823182310265219</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.664112212226947</v>
+        <v>3.66411221222695</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2094940755057446</v>
@@ -649,7 +649,7 @@
         <v>0.2720842327213881</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2454472812560063</v>
+        <v>0.2454472812560066</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.8074715467515962</v>
+        <v>-0.7294740457682706</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>9.570219431818163</v>
+        <v>9.285151769970172</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.05076648742493541</v>
+        <v>-0.2135682053291741</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2190702642395881</v>
+        <v>0.2210262502618935</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.0422712906694617</v>
+        <v>-0.04095250021927938</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6575487574442004</v>
+        <v>0.6607928145615597</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.00769051548576427</v>
+        <v>-0.01699525308386349</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.0175648264540497</v>
+        <v>0.005700608903704076</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.727308925242315</v>
+        <v>6.927290861508059</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.96134459836447</v>
+        <v>17.40382797668087</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.847656919434868</v>
+        <v>7.660020368289653</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.099580193243471</v>
+        <v>7.058500516952301</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4909799182130029</v>
+        <v>0.5202449420654673</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.698375818545194</v>
+        <v>1.615340224534016</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.619727688721335</v>
+        <v>0.60906680388084</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5527719187176682</v>
+        <v>0.5557908192327999</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.860191856197857</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.460647900479908</v>
+        <v>7.460647900479911</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3336336732980439</v>
@@ -749,7 +749,7 @@
         <v>0.4654303639526593</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.709925672403653</v>
+        <v>0.7099256724036532</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.342695288989398</v>
+        <v>2.254390549086688</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.138522437299659</v>
+        <v>3.84101047733305</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.010742143543178</v>
+        <v>1.21123800986608</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.708335898554063</v>
+        <v>4.734603837954294</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1048024535666282</v>
+        <v>0.1157536015139794</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1735491944529304</v>
+        <v>0.2209562065196101</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1742716262886438</v>
+        <v>0.1031448160576572</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3899947071481118</v>
+        <v>0.3822843624598026</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.496051068802917</v>
+        <v>9.883610190918663</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.81686136959483</v>
+        <v>11.19408015344417</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.26824430983352</v>
+        <v>7.772806285118496</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.12518016062915</v>
+        <v>10.37645972875124</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5818591959720377</v>
+        <v>0.6123330918896416</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7364393481764587</v>
+        <v>0.8135085498191394</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9300274719194893</v>
+        <v>0.8682164385275184</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.090316068002783</v>
+        <v>1.130542962798722</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>6.147172373894537</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.70457226503879</v>
+        <v>4.704572265038795</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3477903555852882</v>
@@ -849,7 +849,7 @@
         <v>0.5882672268786533</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3350635883244302</v>
+        <v>0.3350635883244308</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.557324498554631</v>
+        <v>1.547043877268431</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.010663610174846</v>
+        <v>6.300977292703834</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.132113835846022</v>
+        <v>2.573795639479834</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6376572348499486</v>
+        <v>1.121580289796994</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.08076995026952287</v>
+        <v>0.07581064930136422</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3475912949444753</v>
+        <v>0.3540581366636609</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1790426427048877</v>
+        <v>0.1987183179448633</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.0266626665149199</v>
+        <v>0.06465666059474241</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.927084770079329</v>
+        <v>9.76090973180982</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.72421140163735</v>
+        <v>14.70177663715575</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.372307826687329</v>
+        <v>9.57682108825683</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.689345290815067</v>
+        <v>8.530851883310701</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6637860740885752</v>
+        <v>0.6508439174178829</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.137109111792035</v>
+        <v>1.098029802970258</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.046494894125116</v>
+        <v>1.079163451565217</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.7161214520044973</v>
+        <v>0.7017262052754668</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>4.998724333611534</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7.296669642285991</v>
+        <v>7.296669642285996</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3581563330458548</v>
@@ -949,7 +949,7 @@
         <v>0.4099033240175727</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4943909296630361</v>
+        <v>0.4943909296630365</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.827613864941059</v>
+        <v>2.631988629801151</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.49527458051057</v>
+        <v>6.577332794210081</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.979892011623656</v>
+        <v>1.847877861698897</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.904209142920999</v>
+        <v>4.101895147155131</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1440037249116275</v>
+        <v>0.143931453829876</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3159285016776475</v>
+        <v>0.3255545915112087</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1316310622502606</v>
+        <v>0.1324143315269453</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2287207201031526</v>
+        <v>0.2519351127019862</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.858302764670421</v>
+        <v>9.812346868984442</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.93030012347638</v>
+        <v>14.14467109889507</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.532468695766033</v>
+        <v>8.392961603934928</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10.40924693356777</v>
+        <v>10.35074045019268</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6298168888384311</v>
+        <v>0.6472415269822599</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8502592841275863</v>
+        <v>0.8652878891948885</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7917307551208917</v>
+        <v>0.7864062279314229</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7731384119495112</v>
+        <v>0.8005033720185434</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.641148867559894</v>
+        <v>3.386726263165873</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.158070493278437</v>
+        <v>7.871091304695216</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.344217312852928</v>
+        <v>3.414612883190554</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.394570739569288</v>
+        <v>4.577159707910472</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2036186327714969</v>
+        <v>0.1920116794942026</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4892913070925209</v>
+        <v>0.4644659486149837</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2616775076607709</v>
+        <v>0.2754004103697216</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3119096832448082</v>
+        <v>0.3135724831877394</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.544641214668904</v>
+        <v>7.449192173842737</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.90859137238809</v>
+        <v>12.00881750378374</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.784624807782437</v>
+        <v>6.787829221484796</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.529920156311502</v>
+        <v>7.905846968487522</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4702573402501553</v>
+        <v>0.4718318908488795</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.809482345638933</v>
+        <v>0.8068077539044339</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6254234854025625</v>
+        <v>0.635016110138806</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6141104329392291</v>
+        <v>0.6341688622038283</v>
       </c>
     </row>
     <row r="19">
